--- a/res/page/月票管理/MonthTicketBillPage.xlsx
+++ b/res/page/月票管理/MonthTicketBillPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>别名</t>
   </si>
@@ -105,19 +105,19 @@
     <t>退款</t>
   </si>
   <si>
-    <t>//div[@id='monthTicketBillTable']//div[@class='el-table__fixed-right']//span[contains(text(),'退款')]</t>
+    <t>//div[@id='monthTicketBillTable']//div[@class='el-table__fixed-right']//tbody/tr[1]//span[text()='退款']</t>
   </si>
   <si>
     <t>续费</t>
   </si>
   <si>
-    <t>//div[@id='monthTicketBillTable']//div[@class='el-table__fixed-right']//span[contains(text(),'续费')]</t>
+    <t>//div[@id='monthTicketBillTable']//div[@class='el-table__fixed-right']//tbody/tr[1]//span[text()='续费']</t>
   </si>
   <si>
     <t>延长续费时间</t>
   </si>
   <si>
-    <t>//div[@id='monthTicketBillTable']//div[@class='el-table__fixed-right']//span[contains(text(),'延长续费时间')]</t>
+    <t>//div[@id='monthTicketBillTable']//div[@class='el-table__fixed-right']//tbody/tr[1]//span[text()='延长续费时间']</t>
   </si>
   <si>
     <t>选择搜索类型</t>
@@ -168,13 +168,37 @@
     <t>选择停车场下拉框</t>
   </si>
   <si>
-    <t>//div[@id='treeWrapper']//span[contains(text(),'请选择停车场')]</t>
+    <t>//div[@class='common-table-wrapper']//span[contains(text(),'请选择停车场')]</t>
   </si>
   <si>
     <t>选择停车场</t>
   </si>
   <si>
     <t>//ul[@id='tableTree']</t>
+  </si>
+  <si>
+    <t>导入</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "导入")]</t>
+  </si>
+  <si>
+    <t>选择文件</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//input[@id='fileInput']</t>
+  </si>
+  <si>
+    <t>导入提示界面</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-body']</t>
+  </si>
+  <si>
+    <t>关闭-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//button[contains(text(),'关闭')]</t>
   </si>
 </sst>
 </file>
@@ -184,8 +208,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -210,29 +234,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -240,9 +241,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +265,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -264,6 +324,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -272,82 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,13 +392,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,169 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,15 +601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -605,7 +620,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,26 +655,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +681,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -682,10 +706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,133 +718,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,17 +1212,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="108.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="112.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1497,6 +1521,50 @@
       </c>
       <c r="C27" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="28" ht="22" customHeight="1" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="1" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/月票管理/MonthTicketBillPage.xlsx
+++ b/res/page/月票管理/MonthTicketBillPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>别名</t>
   </si>
@@ -120,6 +120,18 @@
     <t>//div[@id='monthTicketBillTable']//div[@class='el-table__fixed-right']//tbody/tr[1]//span[text()='延长续费时间']</t>
   </si>
   <si>
+    <t>选择搜索时间</t>
+  </si>
+  <si>
+    <t>//div[@class='selected-region' and not(@style)]//i[@class='el-input__icon el-range__icon el-icon-time']</t>
+  </si>
+  <si>
+    <t>最近三个月</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'最近三个月')]</t>
+  </si>
+  <si>
     <t>选择搜索类型</t>
   </si>
   <si>
@@ -186,7 +198,7 @@
     <t>选择文件</t>
   </si>
   <si>
-    <t>//*[@id="app"]//input[@id='fileInput']</t>
+    <t>//*[@id="app"]//label[text()='选择文件']/following-sibling::*[1]/input</t>
   </si>
   <si>
     <t>导入提示界面</t>
@@ -199,6 +211,18 @@
   </si>
   <si>
     <t>//*[@id="app"]//button[contains(text(),'关闭')]</t>
+  </si>
+  <si>
+    <t>批量续费</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "批量续费")]</t>
+  </si>
+  <si>
+    <t>批量退费</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "批量退费")]</t>
   </si>
 </sst>
 </file>
@@ -207,9 +231,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -233,6 +257,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -241,17 +331,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,113 +378,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,31 +416,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,139 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,15 +640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -636,30 +651,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +681,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -698,6 +698,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,133 +742,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1446,7 +1470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="31" customHeight="1" spans="1:3">
+    <row r="21" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1454,43 +1478,43 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="31" customHeight="1" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="31" customHeight="1" spans="1:3">
-      <c r="A22" s="3" t="s">
+    <row r="24" s="1" customFormat="1" ht="31" customHeight="1" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
+    <row r="25" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -1501,7 +1525,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" ht="25" customHeight="1" spans="1:3">
+    <row r="26" s="1" customFormat="1" ht="26" customHeight="1" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -1512,7 +1536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" ht="27" customHeight="1" spans="1:3">
+    <row r="27" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -1523,7 +1547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" ht="22" customHeight="1" spans="1:3">
+    <row r="28" ht="25" customHeight="1" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -1534,7 +1558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" ht="23" customHeight="1" spans="1:3">
+    <row r="29" ht="27" customHeight="1" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" ht="23" customHeight="1" spans="1:3">
+    <row r="30" ht="22" customHeight="1" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -1565,6 +1589,50 @@
       </c>
       <c r="C31" s="3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="32" ht="23" customHeight="1" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="1" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/月票管理/MonthTicketBillPage.xlsx
+++ b/res/page/月票管理/MonthTicketBillPage.xlsx
@@ -231,9 +231,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -272,6 +272,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -285,6 +292,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -302,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,24 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,14 +362,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -378,8 +369,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,7 +379,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +387,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,73 +416,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,37 +566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,67 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,21 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -683,17 +668,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -722,6 +696,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,133 +742,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -957,7 +957,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
